--- a/cnn/benchmark_results/NVDA.xlsx
+++ b/cnn/benchmark_results/NVDA.xlsx
@@ -488,28 +488,28 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.2616507177033493</v>
+        <v>-0.2705502392344498</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.04817021253678651</v>
+        <v>-0.0257228825276946</v>
       </c>
       <c r="E2" t="n">
-        <v>42.10526315789473</v>
+        <v>64.11483253588517</v>
       </c>
       <c r="F2" t="n">
-        <v>92</v>
+        <v>140</v>
       </c>
       <c r="G2" t="n">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="H2" t="n">
-        <v>57.89473684210527</v>
+        <v>35.88516746411483</v>
       </c>
       <c r="I2" t="n">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="J2" t="n">
-        <v>84</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3">
@@ -520,28 +520,28 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.5085406698564594</v>
+        <v>-0.4026555023923443</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.1054078803391268</v>
+        <v>0.0009983795441180585</v>
       </c>
       <c r="E3" t="n">
-        <v>42.3444976076555</v>
+        <v>64.11483253588517</v>
       </c>
       <c r="F3" t="n">
-        <v>92</v>
+        <v>137</v>
       </c>
       <c r="G3" t="n">
-        <v>122</v>
+        <v>77</v>
       </c>
       <c r="H3" t="n">
-        <v>57.65550239234449</v>
+        <v>35.88516746411483</v>
       </c>
       <c r="I3" t="n">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="J3" t="n">
-        <v>85</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4">
@@ -552,28 +552,28 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.8101913875598086</v>
+        <v>-0.6224401913875597</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.1867702899248777</v>
+        <v>-0.01383922362485475</v>
       </c>
       <c r="E4" t="n">
-        <v>42.82296650717704</v>
+        <v>64.83253588516746</v>
       </c>
       <c r="F4" t="n">
-        <v>96</v>
+        <v>144</v>
       </c>
       <c r="G4" t="n">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="H4" t="n">
-        <v>57.17703349282297</v>
+        <v>35.16746411483253</v>
       </c>
       <c r="I4" t="n">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="J4" t="n">
-        <v>83</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5">
@@ -584,28 +584,28 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.038253588516747</v>
+        <v>-0.7503588516746411</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2150470745257111</v>
+        <v>0.006665834870615793</v>
       </c>
       <c r="E5" t="n">
-        <v>43.0622009569378</v>
+        <v>65.55023923444976</v>
       </c>
       <c r="F5" t="n">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="G5" t="n">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="H5" t="n">
-        <v>56.9377990430622</v>
+        <v>34.44976076555024</v>
       </c>
       <c r="I5" t="n">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="J5" t="n">
-        <v>78</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6">
@@ -616,28 +616,28 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.248684210526316</v>
+        <v>-1.186004784688995</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.2445294674811872</v>
+        <v>-0.1174352345217977</v>
       </c>
       <c r="E6" t="n">
-        <v>42.82296650717704</v>
+        <v>63.8755980861244</v>
       </c>
       <c r="F6" t="n">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="G6" t="n">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="H6" t="n">
-        <v>57.17703349282297</v>
+        <v>36.12440191387559</v>
       </c>
       <c r="I6" t="n">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="J6" t="n">
-        <v>78</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7">
@@ -648,28 +648,28 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.456866028708133</v>
+        <v>-1.668492822966507</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.2718939679789824</v>
+        <v>-0.2451224129584798</v>
       </c>
       <c r="E7" t="n">
-        <v>43.0622009569378</v>
+        <v>64.83253588516746</v>
       </c>
       <c r="F7" t="n">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="G7" t="n">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="H7" t="n">
-        <v>56.9377990430622</v>
+        <v>35.16746411483253</v>
       </c>
       <c r="I7" t="n">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="J7" t="n">
-        <v>82</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8">
@@ -680,28 +680,28 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.895454545454545</v>
+        <v>-2.07311004784689</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.4196157495174274</v>
+        <v>-0.3039889248059166</v>
       </c>
       <c r="E8" t="n">
-        <v>43.30143540669857</v>
+        <v>66.26794258373205</v>
       </c>
       <c r="F8" t="n">
-        <v>90</v>
+        <v>141</v>
       </c>
       <c r="G8" t="n">
-        <v>139</v>
+        <v>88</v>
       </c>
       <c r="H8" t="n">
-        <v>56.69856459330143</v>
+        <v>33.73205741626794</v>
       </c>
       <c r="I8" t="n">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="J8" t="n">
-        <v>91</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9">
@@ -712,28 +712,28 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>-2.164282296650718</v>
+        <v>-2.516913875598087</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.4890594514958273</v>
+        <v>-0.3849459227909912</v>
       </c>
       <c r="E9" t="n">
-        <v>43.0622009569378</v>
+        <v>67.22488038277513</v>
       </c>
       <c r="F9" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="G9" t="n">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="H9" t="n">
-        <v>56.9377990430622</v>
+        <v>32.77511961722488</v>
       </c>
       <c r="I9" t="n">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="J9" t="n">
-        <v>90</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10">
@@ -744,28 +744,28 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>-2.270622009569378</v>
+        <v>-2.294641148325358</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.4542638788245987</v>
+        <v>-0.2331351836787537</v>
       </c>
       <c r="E10" t="n">
-        <v>43.0622009569378</v>
+        <v>66.50717703349282</v>
       </c>
       <c r="F10" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="G10" t="n">
-        <v>136</v>
+        <v>86</v>
       </c>
       <c r="H10" t="n">
-        <v>56.9377990430622</v>
+        <v>33.49282296650718</v>
       </c>
       <c r="I10" t="n">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="J10" t="n">
-        <v>90</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11">
@@ -776,28 +776,28 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>-2.078373205741626</v>
+        <v>-2.662248803827751</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.2673774347201611</v>
+        <v>-0.2763704121967256</v>
       </c>
       <c r="E11" t="n">
-        <v>42.58373205741627</v>
+        <v>68.18181818181817</v>
       </c>
       <c r="F11" t="n">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="G11" t="n">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c r="H11" t="n">
-        <v>57.41626794258373</v>
+        <v>31.81818181818182</v>
       </c>
       <c r="I11" t="n">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="J11" t="n">
-        <v>87</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12">
@@ -808,28 +808,28 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>-2.078301435406698</v>
+        <v>-3.164808612440192</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.1957194365036806</v>
+        <v>-0.4556671480434056</v>
       </c>
       <c r="E12" t="n">
-        <v>42.10526315789473</v>
+        <v>65.55023923444976</v>
       </c>
       <c r="F12" t="n">
+        <v>133</v>
+      </c>
+      <c r="G12" t="n">
         <v>90</v>
       </c>
-      <c r="G12" t="n">
-        <v>133</v>
-      </c>
       <c r="H12" t="n">
-        <v>57.89473684210527</v>
+        <v>34.44976076555024</v>
       </c>
       <c r="I12" t="n">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="J12" t="n">
-        <v>86</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13">
@@ -840,28 +840,28 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>-2.475358851674641</v>
+        <v>-3.191483253588517</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.3280268596814835</v>
+        <v>-0.3818403921943083</v>
       </c>
       <c r="E13" t="n">
-        <v>42.58373205741627</v>
+        <v>66.02870813397129</v>
       </c>
       <c r="F13" t="n">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="G13" t="n">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="H13" t="n">
-        <v>57.41626794258373</v>
+        <v>33.97129186602871</v>
       </c>
       <c r="I13" t="n">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="J13" t="n">
-        <v>91</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14">
@@ -872,28 +872,28 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>-2.575406698564594</v>
+        <v>-3.781722488038277</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.292173191633726</v>
+        <v>-0.5259955102287441</v>
       </c>
       <c r="E14" t="n">
-        <v>42.58373205741627</v>
+        <v>66.26794258373205</v>
       </c>
       <c r="F14" t="n">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="G14" t="n">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="H14" t="n">
-        <v>57.41626794258373</v>
+        <v>33.73205741626794</v>
       </c>
       <c r="I14" t="n">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="J14" t="n">
-        <v>87</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15">
@@ -904,28 +904,28 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>-2.005909090909091</v>
+        <v>-4.426913875598086</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0942944217637558</v>
+        <v>-0.7096591249818835</v>
       </c>
       <c r="E15" t="n">
-        <v>42.82296650717704</v>
+        <v>66.26794258373205</v>
       </c>
       <c r="F15" t="n">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="G15" t="n">
-        <v>135</v>
+        <v>91</v>
       </c>
       <c r="H15" t="n">
-        <v>57.17703349282297</v>
+        <v>33.73205741626794</v>
       </c>
       <c r="I15" t="n">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="J15" t="n">
-        <v>86</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16">
@@ -936,28 +936,28 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>-2.141842105263158</v>
+        <v>-4.538827751196173</v>
       </c>
       <c r="D16" t="n">
-        <v>0.07709519185818757</v>
+        <v>-0.704001742421092</v>
       </c>
       <c r="E16" t="n">
-        <v>42.82296650717704</v>
+        <v>66.02870813397129</v>
       </c>
       <c r="F16" t="n">
-        <v>96</v>
+        <v>141</v>
       </c>
       <c r="G16" t="n">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="H16" t="n">
-        <v>57.17703349282297</v>
+        <v>33.97129186602871</v>
       </c>
       <c r="I16" t="n">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="J16" t="n">
-        <v>83</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17">
@@ -968,28 +968,28 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>-2.721507177033493</v>
+        <v>-4.138636363636365</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.1718759114845555</v>
+        <v>-0.5024308494656484</v>
       </c>
       <c r="E17" t="n">
-        <v>43.54066985645933</v>
+        <v>65.78947368421053</v>
       </c>
       <c r="F17" t="n">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="G17" t="n">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="H17" t="n">
-        <v>56.45933014354066</v>
+        <v>34.21052631578947</v>
       </c>
       <c r="I17" t="n">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="J17" t="n">
-        <v>89</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18">
@@ -1000,28 +1000,28 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>-2.8222009569378</v>
+        <v>-4.561770334928231</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.168527874963479</v>
+        <v>-0.6009714604707864</v>
       </c>
       <c r="E18" t="n">
-        <v>43.54066985645933</v>
+        <v>66.02870813397129</v>
       </c>
       <c r="F18" t="n">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="G18" t="n">
-        <v>138</v>
+        <v>95</v>
       </c>
       <c r="H18" t="n">
-        <v>56.45933014354066</v>
+        <v>33.97129186602871</v>
       </c>
       <c r="I18" t="n">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="J18" t="n">
-        <v>90</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19">
@@ -1032,28 +1032,28 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>-2.942488038277511</v>
+        <v>-4.697416267942583</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.1351965670538007</v>
+        <v>-0.5943564721327695</v>
       </c>
       <c r="E19" t="n">
-        <v>43.54066985645933</v>
+        <v>66.02870813397129</v>
       </c>
       <c r="F19" t="n">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="G19" t="n">
-        <v>138</v>
+        <v>92</v>
       </c>
       <c r="H19" t="n">
-        <v>56.45933014354066</v>
+        <v>33.97129186602871</v>
       </c>
       <c r="I19" t="n">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="J19" t="n">
-        <v>87</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20">
@@ -1064,28 +1064,28 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>-3.081985645933015</v>
+        <v>-4.88677033492823</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.1094597304875134</v>
+        <v>-0.6008331382895212</v>
       </c>
       <c r="E20" t="n">
-        <v>43.54066985645933</v>
+        <v>66.26794258373205</v>
       </c>
       <c r="F20" t="n">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="G20" t="n">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="H20" t="n">
-        <v>56.45933014354066</v>
+        <v>33.73205741626794</v>
       </c>
       <c r="I20" t="n">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="J20" t="n">
-        <v>83</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21">
@@ -1096,28 +1096,28 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>-3.322631578947369</v>
+        <v>-5.821196172248804</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.1545486648392546</v>
+        <v>-0.8784810981750377</v>
       </c>
       <c r="E21" t="n">
-        <v>43.54066985645933</v>
+        <v>66.98564593301435</v>
       </c>
       <c r="F21" t="n">
-        <v>99</v>
+        <v>147</v>
       </c>
       <c r="G21" t="n">
-        <v>141</v>
+        <v>93</v>
       </c>
       <c r="H21" t="n">
-        <v>56.45933014354066</v>
+        <v>33.01435406698565</v>
       </c>
       <c r="I21" t="n">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="J21" t="n">
-        <v>83</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22">
@@ -1128,28 +1128,28 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>-3.571363636363636</v>
+        <v>-6.036626794258374</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.1967544466835841</v>
+        <v>-0.8842665508389514</v>
       </c>
       <c r="E22" t="n">
-        <v>43.7799043062201</v>
+        <v>66.98564593301435</v>
       </c>
       <c r="F22" t="n">
-        <v>98</v>
+        <v>143</v>
       </c>
       <c r="G22" t="n">
+        <v>92</v>
+      </c>
+      <c r="H22" t="n">
+        <v>33.01435406698565</v>
+      </c>
+      <c r="I22" t="n">
+        <v>46</v>
+      </c>
+      <c r="J22" t="n">
         <v>137</v>
-      </c>
-      <c r="H22" t="n">
-        <v>56.2200956937799</v>
-      </c>
-      <c r="I22" t="n">
-        <v>98</v>
-      </c>
-      <c r="J22" t="n">
-        <v>85</v>
       </c>
     </row>
     <row r="23">
@@ -1160,28 +1160,28 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>-3.758301435406699</v>
+        <v>-6.116387559808616</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.2174676450637955</v>
+        <v>-0.8697862824437217</v>
       </c>
       <c r="E23" t="n">
-        <v>44.01913875598086</v>
+        <v>66.26794258373205</v>
       </c>
       <c r="F23" t="n">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="G23" t="n">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="H23" t="n">
-        <v>55.98086124401915</v>
+        <v>33.73205741626794</v>
       </c>
       <c r="I23" t="n">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="J23" t="n">
-        <v>85</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24">
@@ -1192,28 +1192,28 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>-3.891459330143539</v>
+        <v>-7.013181818181819</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.1803447897908774</v>
+        <v>-1.098615918889732</v>
       </c>
       <c r="E24" t="n">
-        <v>43.7799043062201</v>
+        <v>67.22488038277513</v>
       </c>
       <c r="F24" t="n">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="G24" t="n">
-        <v>137</v>
+        <v>91</v>
       </c>
       <c r="H24" t="n">
-        <v>56.2200956937799</v>
+        <v>32.77511961722488</v>
       </c>
       <c r="I24" t="n">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="J24" t="n">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25">
@@ -1224,28 +1224,28 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>-4.128564593301434</v>
+        <v>-7.721866028708131</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.213271023396737</v>
+        <v>-1.290148975413413</v>
       </c>
       <c r="E25" t="n">
-        <v>43.7799043062201</v>
+        <v>67.46411483253588</v>
       </c>
       <c r="F25" t="n">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="G25" t="n">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="H25" t="n">
-        <v>56.2200956937799</v>
+        <v>32.53588516746412</v>
       </c>
       <c r="I25" t="n">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="J25" t="n">
-        <v>88</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26">
@@ -1256,28 +1256,28 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>-4.237607655502392</v>
+        <v>-8.3522009569378</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.1863456425697594</v>
+        <v>-1.461042125983585</v>
       </c>
       <c r="E26" t="n">
-        <v>43.7799043062201</v>
+        <v>67.70334928229666</v>
       </c>
       <c r="F26" t="n">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="G26" t="n">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="H26" t="n">
-        <v>56.2200956937799</v>
+        <v>32.29665071770335</v>
       </c>
       <c r="I26" t="n">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="J26" t="n">
-        <v>88</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27">
@@ -1288,28 +1288,28 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>-4.345622009569378</v>
+        <v>-8.485287081339713</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.1539390405126737</v>
+        <v>-1.449220842960371</v>
       </c>
       <c r="E27" t="n">
-        <v>43.7799043062201</v>
+        <v>67.46411483253588</v>
       </c>
       <c r="F27" t="n">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="G27" t="n">
-        <v>141</v>
+        <v>97</v>
       </c>
       <c r="H27" t="n">
-        <v>56.2200956937799</v>
+        <v>32.53588516746412</v>
       </c>
       <c r="I27" t="n">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="J27" t="n">
-        <v>85</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28">
@@ -1320,28 +1320,28 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>-4.449425837320574</v>
+        <v>-8.824019138755981</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.1349711448416228</v>
+        <v>-1.513517873499607</v>
       </c>
       <c r="E28" t="n">
-        <v>43.7799043062201</v>
+        <v>67.70334928229666</v>
       </c>
       <c r="F28" t="n">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="G28" t="n">
-        <v>141</v>
+        <v>97</v>
       </c>
       <c r="H28" t="n">
-        <v>56.2200956937799</v>
+        <v>32.29665071770335</v>
       </c>
       <c r="I28" t="n">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="J28" t="n">
-        <v>83</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29">
@@ -1352,28 +1352,28 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>-4.74614832535885</v>
+        <v>-8.864904306220096</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.2092800105549507</v>
+        <v>-1.464319901340135</v>
       </c>
       <c r="E29" t="n">
-        <v>44.01913875598086</v>
+        <v>67.70334928229666</v>
       </c>
       <c r="F29" t="n">
-        <v>101</v>
+        <v>142</v>
       </c>
       <c r="G29" t="n">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="H29" t="n">
-        <v>55.98086124401915</v>
+        <v>32.29665071770335</v>
       </c>
       <c r="I29" t="n">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="J29" t="n">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30">
@@ -1384,28 +1384,28 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>-4.589521531100479</v>
+        <v>-10.57311004784689</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.02757406686944391</v>
+        <v>-1.992446149485137</v>
       </c>
       <c r="E30" t="n">
-        <v>43.54066985645933</v>
+        <v>68.42105263157895</v>
       </c>
       <c r="F30" t="n">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="G30" t="n">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="H30" t="n">
-        <v>56.45933014354066</v>
+        <v>31.57894736842105</v>
       </c>
       <c r="I30" t="n">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="J30" t="n">
-        <v>80</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31">
@@ -1416,28 +1416,28 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>-4.785263157894736</v>
+        <v>-10.02904306220096</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.02050262488986688</v>
+        <v>-1.703310248717539</v>
       </c>
       <c r="E31" t="n">
-        <v>43.54066985645933</v>
+        <v>68.6602870813397</v>
       </c>
       <c r="F31" t="n">
-        <v>101</v>
+        <v>143</v>
       </c>
       <c r="G31" t="n">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="H31" t="n">
-        <v>56.45933014354066</v>
+        <v>31.33971291866029</v>
       </c>
       <c r="I31" t="n">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="J31" t="n">
-        <v>81</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32">
@@ -1448,28 +1448,28 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>-4.978995215311003</v>
+        <v>-10.78191387559809</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.02828367074956687</v>
+        <v>-1.941783030518754</v>
       </c>
       <c r="E32" t="n">
-        <v>43.54066985645933</v>
+        <v>68.18181818181817</v>
       </c>
       <c r="F32" t="n">
+        <v>143</v>
+      </c>
+      <c r="G32" t="n">
         <v>101</v>
       </c>
-      <c r="G32" t="n">
-        <v>143</v>
-      </c>
       <c r="H32" t="n">
-        <v>56.45933014354066</v>
+        <v>31.81818181818182</v>
       </c>
       <c r="I32" t="n">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="J32" t="n">
-        <v>81</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33">
@@ -1480,28 +1480,28 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>-5.136363636363635</v>
+        <v>-11.82526315789474</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.03534195290046173</v>
+        <v>-2.25299663766201</v>
       </c>
       <c r="E33" t="n">
-        <v>43.54066985645933</v>
+        <v>68.6602870813397</v>
       </c>
       <c r="F33" t="n">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="G33" t="n">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="H33" t="n">
-        <v>56.45933014354066</v>
+        <v>31.33971291866029</v>
       </c>
       <c r="I33" t="n">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="J33" t="n">
-        <v>79</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34">
@@ -1512,28 +1512,28 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>-5.357272727272723</v>
+        <v>-11.37229665071771</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.08213897014870589</v>
+        <v>-2.043939155249483</v>
       </c>
       <c r="E34" t="n">
-        <v>43.54066985645933</v>
+        <v>68.18181818181817</v>
       </c>
       <c r="F34" t="n">
-        <v>103</v>
+        <v>141</v>
       </c>
       <c r="G34" t="n">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="H34" t="n">
-        <v>56.45933014354066</v>
+        <v>31.81818181818182</v>
       </c>
       <c r="I34" t="n">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="J34" t="n">
-        <v>79</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35">
@@ -1544,28 +1544,28 @@
         <v>34</v>
       </c>
       <c r="C35" t="n">
-        <v>-5.58677033492823</v>
+        <v>-12.14854066985646</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.1525226677986292</v>
+        <v>-2.2787250106206</v>
       </c>
       <c r="E35" t="n">
-        <v>43.7799043062201</v>
+        <v>68.42105263157895</v>
       </c>
       <c r="F35" t="n">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="G35" t="n">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="H35" t="n">
-        <v>56.2200956937799</v>
+        <v>31.57894736842105</v>
       </c>
       <c r="I35" t="n">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="J35" t="n">
-        <v>78</v>
+        <v>144</v>
       </c>
     </row>
     <row r="36">
@@ -1576,28 +1576,28 @@
         <v>35</v>
       </c>
       <c r="C36" t="n">
-        <v>-5.575933014354071</v>
+        <v>-12.49311004784689</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.09960235175002111</v>
+        <v>-2.34605171527088</v>
       </c>
       <c r="E36" t="n">
-        <v>43.54066985645933</v>
+        <v>69.13875598086125</v>
       </c>
       <c r="F36" t="n">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="G36" t="n">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="H36" t="n">
-        <v>56.45933014354066</v>
+        <v>30.86124401913876</v>
       </c>
       <c r="I36" t="n">
-        <v>103</v>
+        <v>34</v>
       </c>
       <c r="J36" t="n">
-        <v>77</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37">
@@ -1608,28 +1608,28 @@
         <v>36</v>
       </c>
       <c r="C37" t="n">
-        <v>-5.710933014354067</v>
+        <v>-13.22222488038277</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.1207529191375038</v>
+        <v>-2.554773074813146</v>
       </c>
       <c r="E37" t="n">
-        <v>43.54066985645933</v>
+        <v>69.61722488038278</v>
       </c>
       <c r="F37" t="n">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="G37" t="n">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="H37" t="n">
-        <v>56.45933014354066</v>
+        <v>30.38277511961722</v>
       </c>
       <c r="I37" t="n">
-        <v>102</v>
+        <v>32</v>
       </c>
       <c r="J37" t="n">
-        <v>76</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38">
@@ -1640,28 +1640,28 @@
         <v>37</v>
       </c>
       <c r="C38" t="n">
-        <v>-5.701985645933017</v>
+        <v>-13.11322966507177</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.06046669194432243</v>
+        <v>-2.431251647522087</v>
       </c>
       <c r="E38" t="n">
-        <v>43.54066985645933</v>
+        <v>70.09569377990431</v>
       </c>
       <c r="F38" t="n">
-        <v>107</v>
+        <v>148</v>
       </c>
       <c r="G38" t="n">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="H38" t="n">
-        <v>56.45933014354066</v>
+        <v>29.90430622009569</v>
       </c>
       <c r="I38" t="n">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="J38" t="n">
-        <v>75</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39">
@@ -1672,28 +1672,28 @@
         <v>38</v>
       </c>
       <c r="C39" t="n">
-        <v>-5.692918660287082</v>
+        <v>-13.438995215311</v>
       </c>
       <c r="D39" t="n">
-        <v>0.002185119901224996</v>
+        <v>-2.508217340529573</v>
       </c>
       <c r="E39" t="n">
-        <v>43.7799043062201</v>
+        <v>69.61722488038278</v>
       </c>
       <c r="F39" t="n">
-        <v>109</v>
+        <v>148</v>
       </c>
       <c r="G39" t="n">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="H39" t="n">
-        <v>56.2200956937799</v>
+        <v>30.38277511961722</v>
       </c>
       <c r="I39" t="n">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="J39" t="n">
-        <v>74</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40">
@@ -1704,28 +1704,28 @@
         <v>39</v>
       </c>
       <c r="C40" t="n">
-        <v>-5.154258373205742</v>
+        <v>-13.16205741626795</v>
       </c>
       <c r="D40" t="n">
-        <v>0.3381946630972935</v>
+        <v>-2.31858821483564</v>
       </c>
       <c r="E40" t="n">
-        <v>43.7799043062201</v>
+        <v>70.57416267942584</v>
       </c>
       <c r="F40" t="n">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="G40" t="n">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="H40" t="n">
-        <v>56.2200956937799</v>
+        <v>29.42583732057416</v>
       </c>
       <c r="I40" t="n">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="J40" t="n">
-        <v>72</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41">
@@ -1736,28 +1736,28 @@
         <v>40</v>
       </c>
       <c r="C41" t="n">
-        <v>-5.076172248803829</v>
+        <v>-13.64454545454545</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4413704331514382</v>
+        <v>-2.478559801312648</v>
       </c>
       <c r="E41" t="n">
-        <v>43.7799043062201</v>
+        <v>69.61722488038278</v>
       </c>
       <c r="F41" t="n">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="G41" t="n">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="H41" t="n">
-        <v>56.2200956937799</v>
+        <v>30.38277511961722</v>
       </c>
       <c r="I41" t="n">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="J41" t="n">
-        <v>71</v>
+        <v>143</v>
       </c>
     </row>
     <row r="42">
@@ -1768,28 +1768,28 @@
         <v>41</v>
       </c>
       <c r="C42" t="n">
-        <v>-3.823014354066988</v>
+        <v>-14.08210526315789</v>
       </c>
       <c r="D42" t="n">
-        <v>1.139786552393161</v>
+        <v>-2.584431772956579</v>
       </c>
       <c r="E42" t="n">
-        <v>44.49760765550239</v>
+        <v>70.09569377990431</v>
       </c>
       <c r="F42" t="n">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="G42" t="n">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="H42" t="n">
-        <v>55.50239234449761</v>
+        <v>29.90430622009569</v>
       </c>
       <c r="I42" t="n">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="J42" t="n">
-        <v>65</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43">
@@ -1800,28 +1800,28 @@
         <v>42</v>
       </c>
       <c r="C43" t="n">
-        <v>-3.763612440191385</v>
+        <v>-14.53691387559809</v>
       </c>
       <c r="D43" t="n">
-        <v>1.228428988120842</v>
+        <v>-2.716486209852814</v>
       </c>
       <c r="E43" t="n">
-        <v>44.49760765550239</v>
+        <v>69.85645933014354</v>
       </c>
       <c r="F43" t="n">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="G43" t="n">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="H43" t="n">
-        <v>55.50239234449761</v>
+        <v>30.14354066985646</v>
       </c>
       <c r="I43" t="n">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="J43" t="n">
-        <v>63</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44">
@@ -1832,28 +1832,28 @@
         <v>43</v>
       </c>
       <c r="C44" t="n">
-        <v>-3.99387559808612</v>
+        <v>-14.52827751196173</v>
       </c>
       <c r="D44" t="n">
-        <v>1.173881678760121</v>
+        <v>-2.685841445843597</v>
       </c>
       <c r="E44" t="n">
-        <v>44.73684210526316</v>
+        <v>69.61722488038278</v>
       </c>
       <c r="F44" t="n">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="G44" t="n">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="H44" t="n">
-        <v>55.26315789473685</v>
+        <v>30.38277511961722</v>
       </c>
       <c r="I44" t="n">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="J44" t="n">
-        <v>71</v>
+        <v>142</v>
       </c>
     </row>
     <row r="45">
@@ -1864,28 +1864,28 @@
         <v>44</v>
       </c>
       <c r="C45" t="n">
-        <v>-3.894665071770334</v>
+        <v>-15.21873205741627</v>
       </c>
       <c r="D45" t="n">
-        <v>1.273749911056499</v>
+        <v>-2.93330179883089</v>
       </c>
       <c r="E45" t="n">
-        <v>44.73684210526316</v>
+        <v>69.13875598086125</v>
       </c>
       <c r="F45" t="n">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="G45" t="n">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="H45" t="n">
-        <v>55.26315789473685</v>
+        <v>30.86124401913876</v>
       </c>
       <c r="I45" t="n">
-        <v>105</v>
+        <v>33</v>
       </c>
       <c r="J45" t="n">
-        <v>70</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46">
@@ -1896,28 +1896,28 @@
         <v>45</v>
       </c>
       <c r="C46" t="n">
-        <v>-3.410622009569378</v>
+        <v>-15.51229665071771</v>
       </c>
       <c r="D46" t="n">
-        <v>1.560849811294663</v>
+        <v>-3.007976219982568</v>
       </c>
       <c r="E46" t="n">
-        <v>44.97607655502392</v>
+        <v>69.13875598086125</v>
       </c>
       <c r="F46" t="n">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="G46" t="n">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="H46" t="n">
-        <v>55.02392344497608</v>
+        <v>30.86124401913876</v>
       </c>
       <c r="I46" t="n">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="J46" t="n">
-        <v>63</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47">
@@ -1928,28 +1928,28 @@
         <v>46</v>
       </c>
       <c r="C47" t="n">
-        <v>-3.234880382775121</v>
+        <v>-15.7788995215311</v>
       </c>
       <c r="D47" t="n">
-        <v>1.697808899335169</v>
+        <v>-3.074492778491339</v>
       </c>
       <c r="E47" t="n">
-        <v>44.97607655502392</v>
+        <v>69.13875598086125</v>
       </c>
       <c r="F47" t="n">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="G47" t="n">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="H47" t="n">
-        <v>55.02392344497608</v>
+        <v>30.86124401913876</v>
       </c>
       <c r="I47" t="n">
-        <v>109</v>
+        <v>34</v>
       </c>
       <c r="J47" t="n">
-        <v>65</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48">
@@ -1960,28 +1960,28 @@
         <v>47</v>
       </c>
       <c r="C48" t="n">
-        <v>-3.069760765550238</v>
+        <v>-15.8500956937799</v>
       </c>
       <c r="D48" t="n">
-        <v>1.839385676544189</v>
+        <v>-3.052269604029298</v>
       </c>
       <c r="E48" t="n">
-        <v>44.97607655502392</v>
+        <v>69.13875598086125</v>
       </c>
       <c r="F48" t="n">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="G48" t="n">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="H48" t="n">
-        <v>55.02392344497608</v>
+        <v>30.86124401913876</v>
       </c>
       <c r="I48" t="n">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="J48" t="n">
-        <v>67</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49">
@@ -1992,28 +1992,28 @@
         <v>48</v>
       </c>
       <c r="C49" t="n">
-        <v>-2.936674641148329</v>
+        <v>-16.93700956937799</v>
       </c>
       <c r="D49" t="n">
-        <v>1.966714927692365</v>
+        <v>-3.3748875367971</v>
       </c>
       <c r="E49" t="n">
-        <v>44.97607655502392</v>
+        <v>69.85645933014354</v>
       </c>
       <c r="F49" t="n">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="G49" t="n">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="H49" t="n">
-        <v>55.02392344497608</v>
+        <v>30.14354066985646</v>
       </c>
       <c r="I49" t="n">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="J49" t="n">
-        <v>68</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50">
@@ -2024,28 +2024,28 @@
         <v>49</v>
       </c>
       <c r="C50" t="n">
-        <v>-2.769306220095701</v>
+        <v>-17.6249043062201</v>
       </c>
       <c r="D50" t="n">
-        <v>2.117722305278196</v>
+        <v>-3.568803757739313</v>
       </c>
       <c r="E50" t="n">
-        <v>45.45454545454545</v>
+        <v>70.09569377990431</v>
       </c>
       <c r="F50" t="n">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="G50" t="n">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="H50" t="n">
-        <v>54.54545454545454</v>
+        <v>29.90430622009569</v>
       </c>
       <c r="I50" t="n">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="J50" t="n">
-        <v>68</v>
+        <v>143</v>
       </c>
     </row>
     <row r="51">
@@ -2056,28 +2056,28 @@
         <v>50</v>
       </c>
       <c r="C51" t="n">
-        <v>-2.739569377990435</v>
+        <v>-17.03488038277512</v>
       </c>
       <c r="D51" t="n">
-        <v>2.18911404994122</v>
+        <v>-3.342901812136887</v>
       </c>
       <c r="E51" t="n">
-        <v>45.45454545454545</v>
+        <v>69.37799043062201</v>
       </c>
       <c r="F51" t="n">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="G51" t="n">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="H51" t="n">
-        <v>54.54545454545454</v>
+        <v>30.62200956937799</v>
       </c>
       <c r="I51" t="n">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="J51" t="n">
-        <v>69</v>
+        <v>142</v>
       </c>
     </row>
     <row r="52">
@@ -2088,28 +2088,28 @@
         <v>51</v>
       </c>
       <c r="C52" t="n">
-        <v>-2.686244019138757</v>
+        <v>-17.8316985645933</v>
       </c>
       <c r="D52" t="n">
-        <v>2.261608050004396</v>
+        <v>-3.583855331214338</v>
       </c>
       <c r="E52" t="n">
-        <v>45.45454545454545</v>
+        <v>69.61722488038278</v>
       </c>
       <c r="F52" t="n">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="G52" t="n">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="H52" t="n">
-        <v>54.54545454545454</v>
+        <v>30.38277511961722</v>
       </c>
       <c r="I52" t="n">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="J52" t="n">
-        <v>68</v>
+        <v>142</v>
       </c>
     </row>
     <row r="53">
@@ -2120,28 +2120,28 @@
         <v>52</v>
       </c>
       <c r="C53" t="n">
-        <v>-2.038779904306218</v>
+        <v>-19.21035885167463</v>
       </c>
       <c r="D53" t="n">
-        <v>2.631822094948018</v>
+        <v>-4.00808821310957</v>
       </c>
       <c r="E53" t="n">
-        <v>46.17224880382776</v>
+        <v>70.57416267942584</v>
       </c>
       <c r="F53" t="n">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="G53" t="n">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="H53" t="n">
-        <v>53.82775119617224</v>
+        <v>29.42583732057416</v>
       </c>
       <c r="I53" t="n">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="J53" t="n">
-        <v>68</v>
+        <v>144</v>
       </c>
     </row>
     <row r="54">
@@ -2152,28 +2152,28 @@
         <v>53</v>
       </c>
       <c r="C54" t="n">
-        <v>-1.956267942583722</v>
+        <v>-19.55114832535885</v>
       </c>
       <c r="D54" t="n">
-        <v>2.728401258889342</v>
+        <v>-4.079968098429435</v>
       </c>
       <c r="E54" t="n">
-        <v>46.17224880382776</v>
+        <v>70.57416267942584</v>
       </c>
       <c r="F54" t="n">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="G54" t="n">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="H54" t="n">
-        <v>53.82775119617224</v>
+        <v>29.42583732057416</v>
       </c>
       <c r="I54" t="n">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="J54" t="n">
-        <v>68</v>
+        <v>147</v>
       </c>
     </row>
     <row r="55">
@@ -2184,28 +2184,28 @@
         <v>54</v>
       </c>
       <c r="C55" t="n">
-        <v>-1.835095693779906</v>
+        <v>-20.14069377990431</v>
       </c>
       <c r="D55" t="n">
-        <v>2.854848290099961</v>
+        <v>-4.223057423099614</v>
       </c>
       <c r="E55" t="n">
-        <v>46.17224880382776</v>
+        <v>70.81339712918661</v>
       </c>
       <c r="F55" t="n">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="G55" t="n">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="H55" t="n">
-        <v>53.82775119617224</v>
+        <v>29.1866028708134</v>
       </c>
       <c r="I55" t="n">
-        <v>113</v>
+        <v>31</v>
       </c>
       <c r="J55" t="n">
-        <v>68</v>
+        <v>150</v>
       </c>
     </row>
     <row r="56">
@@ -2216,28 +2216,28 @@
         <v>55</v>
       </c>
       <c r="C56" t="n">
-        <v>-1.608947368421052</v>
+        <v>-21.16832535885167</v>
       </c>
       <c r="D56" t="n">
-        <v>3.035641636932217</v>
+        <v>-4.511138801583146</v>
       </c>
       <c r="E56" t="n">
-        <v>45.93301435406698</v>
+        <v>71.5311004784689</v>
       </c>
       <c r="F56" t="n">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="G56" t="n">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="H56" t="n">
-        <v>54.06698564593302</v>
+        <v>28.4688995215311</v>
       </c>
       <c r="I56" t="n">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="J56" t="n">
-        <v>69</v>
+        <v>157</v>
       </c>
     </row>
     <row r="57">
@@ -2248,28 +2248,28 @@
         <v>56</v>
       </c>
       <c r="C57" t="n">
-        <v>-1.260956937799049</v>
+        <v>-21.76153110047848</v>
       </c>
       <c r="D57" t="n">
-        <v>3.268988494905891</v>
+        <v>-4.66101500016313</v>
       </c>
       <c r="E57" t="n">
-        <v>46.17224880382776</v>
+        <v>71.77033492822966</v>
       </c>
       <c r="F57" t="n">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="G57" t="n">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="H57" t="n">
-        <v>53.82775119617224</v>
+        <v>28.22966507177033</v>
       </c>
       <c r="I57" t="n">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="J57" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
     </row>
     <row r="58">
@@ -2280,28 +2280,28 @@
         <v>57</v>
       </c>
       <c r="C58" t="n">
-        <v>-1.453277511961723</v>
+        <v>-22.13485645933014</v>
       </c>
       <c r="D58" t="n">
-        <v>3.234807800400548</v>
+        <v>-4.726424515957262</v>
       </c>
       <c r="E58" t="n">
-        <v>46.41148325358851</v>
+        <v>71.77033492822966</v>
       </c>
       <c r="F58" t="n">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="G58" t="n">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="H58" t="n">
-        <v>53.58851674641149</v>
+        <v>28.22966507177033</v>
       </c>
       <c r="I58" t="n">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="J58" t="n">
-        <v>74</v>
+        <v>165</v>
       </c>
     </row>
     <row r="59">
@@ -2312,28 +2312,28 @@
         <v>58</v>
       </c>
       <c r="C59" t="n">
-        <v>-1.009617224880393</v>
+        <v>-21.1253110047847</v>
       </c>
       <c r="D59" t="n">
-        <v>3.506724554325888</v>
+        <v>-4.114415080225998</v>
       </c>
       <c r="E59" t="n">
-        <v>46.65071770334928</v>
+        <v>72.96650717703349</v>
       </c>
       <c r="F59" t="n">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="G59" t="n">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="H59" t="n">
-        <v>53.34928229665071</v>
+        <v>27.03349282296651</v>
       </c>
       <c r="I59" t="n">
-        <v>118</v>
+        <v>24</v>
       </c>
       <c r="J59" t="n">
-        <v>76</v>
+        <v>170</v>
       </c>
     </row>
     <row r="60">
@@ -2344,28 +2344,28 @@
         <v>59</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.626842105263159</v>
+        <v>-21.83133971291867</v>
       </c>
       <c r="D60" t="n">
-        <v>3.758869175798777</v>
+        <v>-4.275488607286319</v>
       </c>
       <c r="E60" t="n">
-        <v>46.88995215311004</v>
+        <v>73.44497607655502</v>
       </c>
       <c r="F60" t="n">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="G60" t="n">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="H60" t="n">
-        <v>53.11004784688996</v>
+        <v>26.55502392344498</v>
       </c>
       <c r="I60" t="n">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="J60" t="n">
-        <v>75</v>
+        <v>171</v>
       </c>
     </row>
     <row r="61">
@@ -2376,28 +2376,28 @@
         <v>60</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.6238277511961772</v>
+        <v>-20.47076555023924</v>
       </c>
       <c r="D61" t="n">
-        <v>3.828803365144047</v>
+        <v>-3.615044546295212</v>
       </c>
       <c r="E61" t="n">
-        <v>46.88995215311004</v>
+        <v>73.92344497607655</v>
       </c>
       <c r="F61" t="n">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="G61" t="n">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="H61" t="n">
-        <v>53.11004784688996</v>
+        <v>26.07655502392344</v>
       </c>
       <c r="I61" t="n">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="J61" t="n">
-        <v>71</v>
+        <v>168</v>
       </c>
     </row>
     <row r="62">
@@ -2408,28 +2408,28 @@
         <v>61</v>
       </c>
       <c r="C62" t="n">
-        <v>0.08234449760765786</v>
+        <v>-21.66377990430623</v>
       </c>
       <c r="D62" t="n">
-        <v>4.223332727542947</v>
+        <v>-4.055509363804374</v>
       </c>
       <c r="E62" t="n">
-        <v>47.36842105263158</v>
+        <v>73.44497607655502</v>
       </c>
       <c r="F62" t="n">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="G62" t="n">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="H62" t="n">
-        <v>52.63157894736842</v>
+        <v>26.55502392344498</v>
       </c>
       <c r="I62" t="n">
-        <v>114</v>
+        <v>17</v>
       </c>
       <c r="J62" t="n">
-        <v>70</v>
+        <v>167</v>
       </c>
     </row>
     <row r="63">
@@ -2440,28 +2440,28 @@
         <v>62</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.2575598086124355</v>
+        <v>-21.73746411483254</v>
       </c>
       <c r="D63" t="n">
-        <v>4.11585755991788</v>
+        <v>-4.007742394150286</v>
       </c>
       <c r="E63" t="n">
-        <v>47.12918660287082</v>
+        <v>73.44497607655502</v>
       </c>
       <c r="F63" t="n">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="G63" t="n">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="H63" t="n">
-        <v>52.87081339712919</v>
+        <v>26.55502392344498</v>
       </c>
       <c r="I63" t="n">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="J63" t="n">
-        <v>69</v>
+        <v>166</v>
       </c>
     </row>
     <row r="64">
@@ -2472,28 +2472,28 @@
         <v>63</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.1167703349282263</v>
+        <v>-22.83131578947369</v>
       </c>
       <c r="D64" t="n">
-        <v>4.223716804785402</v>
+        <v>-4.48001812892964</v>
       </c>
       <c r="E64" t="n">
-        <v>47.12918660287082</v>
+        <v>72.48803827751196</v>
       </c>
       <c r="F64" t="n">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="G64" t="n">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="H64" t="n">
-        <v>52.87081339712919</v>
+        <v>27.51196172248804</v>
       </c>
       <c r="I64" t="n">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="J64" t="n">
-        <v>70</v>
+        <v>166</v>
       </c>
     </row>
     <row r="65">
@@ -2504,28 +2504,28 @@
         <v>64</v>
       </c>
       <c r="C65" t="n">
-        <v>0.2233971291866053</v>
+        <v>-22.78918660287082</v>
       </c>
       <c r="D65" t="n">
-        <v>4.419934614264095</v>
+        <v>-4.418889555220424</v>
       </c>
       <c r="E65" t="n">
-        <v>47.36842105263158</v>
+        <v>72.48803827751196</v>
       </c>
       <c r="F65" t="n">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="G65" t="n">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="H65" t="n">
-        <v>52.63157894736842</v>
+        <v>27.51196172248804</v>
       </c>
       <c r="I65" t="n">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="J65" t="n">
-        <v>75</v>
+        <v>171</v>
       </c>
     </row>
     <row r="66">
@@ -2536,28 +2536,28 @@
         <v>65</v>
       </c>
       <c r="C66" t="n">
-        <v>0.8380143540669834</v>
+        <v>-24.11423444976077</v>
       </c>
       <c r="D66" t="n">
-        <v>4.744873170095966</v>
+        <v>-4.974517012565009</v>
       </c>
       <c r="E66" t="n">
-        <v>47.12918660287082</v>
+        <v>71.5311004784689</v>
       </c>
       <c r="F66" t="n">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="G66" t="n">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="H66" t="n">
-        <v>52.87081339712919</v>
+        <v>28.4688995215311</v>
       </c>
       <c r="I66" t="n">
-        <v>119</v>
+        <v>24</v>
       </c>
       <c r="J66" t="n">
-        <v>71</v>
+        <v>166</v>
       </c>
     </row>
     <row r="67">
@@ -2568,28 +2568,28 @@
         <v>66</v>
       </c>
       <c r="C67" t="n">
-        <v>1.762822966507172</v>
+        <v>-21.63909090909091</v>
       </c>
       <c r="D67" t="n">
-        <v>5.204101697382708</v>
+        <v>-3.812095859132523</v>
       </c>
       <c r="E67" t="n">
-        <v>47.60765550239234</v>
+        <v>72.24880382775119</v>
       </c>
       <c r="F67" t="n">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="G67" t="n">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="H67" t="n">
-        <v>52.39234449760766</v>
+        <v>27.7511961722488</v>
       </c>
       <c r="I67" t="n">
-        <v>118</v>
+        <v>24</v>
       </c>
       <c r="J67" t="n">
-        <v>73</v>
+        <v>167</v>
       </c>
     </row>
     <row r="68">
@@ -2600,28 +2600,28 @@
         <v>67</v>
       </c>
       <c r="C68" t="n">
-        <v>2.203492822966508</v>
+        <v>-25.03952153110048</v>
       </c>
       <c r="D68" t="n">
-        <v>5.446057687336565</v>
+        <v>-5.118689415092489</v>
       </c>
       <c r="E68" t="n">
-        <v>47.60765550239234</v>
+        <v>72.00956937799043</v>
       </c>
       <c r="F68" t="n">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G68" t="n">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="H68" t="n">
-        <v>52.39234449760766</v>
+        <v>27.99043062200957</v>
       </c>
       <c r="I68" t="n">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c r="J68" t="n">
-        <v>74</v>
+        <v>171</v>
       </c>
     </row>
     <row r="69">
@@ -2632,28 +2632,28 @@
         <v>68</v>
       </c>
       <c r="C69" t="n">
-        <v>2.245382775119612</v>
+        <v>-23.91873205741627</v>
       </c>
       <c r="D69" t="n">
-        <v>5.504088976168548</v>
+        <v>-4.649345156790821</v>
       </c>
       <c r="E69" t="n">
-        <v>47.60765550239234</v>
+        <v>71.5311004784689</v>
       </c>
       <c r="F69" t="n">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="G69" t="n">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="H69" t="n">
-        <v>52.39234449760766</v>
+        <v>28.4688995215311</v>
       </c>
       <c r="I69" t="n">
-        <v>118</v>
+        <v>24</v>
       </c>
       <c r="J69" t="n">
-        <v>76</v>
+        <v>170</v>
       </c>
     </row>
     <row r="70">
@@ -2664,28 +2664,28 @@
         <v>69</v>
       </c>
       <c r="C70" t="n">
-        <v>5.58332535885167</v>
+        <v>-22.02815789473684</v>
       </c>
       <c r="D70" t="n">
-        <v>7.014417652100448</v>
+        <v>-3.678450567293595</v>
       </c>
       <c r="E70" t="n">
-        <v>48.5645933014354</v>
+        <v>72.96650717703349</v>
       </c>
       <c r="F70" t="n">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G70" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H70" t="n">
-        <v>51.43540669856459</v>
+        <v>27.03349282296651</v>
       </c>
       <c r="I70" t="n">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c r="J70" t="n">
-        <v>76</v>
+        <v>173</v>
       </c>
     </row>
     <row r="71">
@@ -2696,28 +2696,28 @@
         <v>70</v>
       </c>
       <c r="C71" t="n">
-        <v>6.029952153110047</v>
+        <v>-23.49377990430622</v>
       </c>
       <c r="D71" t="n">
-        <v>7.258006189652795</v>
+        <v>-4.273176154139521</v>
       </c>
       <c r="E71" t="n">
-        <v>48.80382775119617</v>
+        <v>72.48803827751196</v>
       </c>
       <c r="F71" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G71" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H71" t="n">
-        <v>51.19617224880383</v>
+        <v>27.51196172248804</v>
       </c>
       <c r="I71" t="n">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c r="J71" t="n">
-        <v>78</v>
+        <v>175</v>
       </c>
     </row>
     <row r="72">
@@ -2728,28 +2728,28 @@
         <v>71</v>
       </c>
       <c r="C72" t="n">
-        <v>6.468110047846888</v>
+        <v>-20.79748803827751</v>
       </c>
       <c r="D72" t="n">
-        <v>7.495463787677482</v>
+        <v>-3.052188287586382</v>
       </c>
       <c r="E72" t="n">
-        <v>48.80382775119617</v>
+        <v>72.96650717703349</v>
       </c>
       <c r="F72" t="n">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G72" t="n">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H72" t="n">
-        <v>51.19617224880383</v>
+        <v>27.03349282296651</v>
       </c>
       <c r="I72" t="n">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c r="J72" t="n">
-        <v>79</v>
+        <v>176</v>
       </c>
     </row>
     <row r="73">
@@ -2760,28 +2760,28 @@
         <v>72</v>
       </c>
       <c r="C73" t="n">
-        <v>7.893684210526319</v>
+        <v>-20.85569377990431</v>
       </c>
       <c r="D73" t="n">
-        <v>8.192589192370864</v>
+        <v>-2.972574627241423</v>
       </c>
       <c r="E73" t="n">
-        <v>49.2822966507177</v>
+        <v>73.20574162679426</v>
       </c>
       <c r="F73" t="n">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G73" t="n">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H73" t="n">
-        <v>50.7177033492823</v>
+        <v>26.79425837320574</v>
       </c>
       <c r="I73" t="n">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="J73" t="n">
-        <v>80</v>
+        <v>176</v>
       </c>
     </row>
     <row r="74">
@@ -2792,13 +2792,13 @@
         <v>73</v>
       </c>
       <c r="C74" t="n">
-        <v>10.55698564593301</v>
+        <v>-20.70086124401914</v>
       </c>
       <c r="D74" t="n">
-        <v>9.410787730427089</v>
+        <v>-2.830703030968764</v>
       </c>
       <c r="E74" t="n">
-        <v>50.23923444976076</v>
+        <v>72.96650717703349</v>
       </c>
       <c r="F74" t="n">
         <v>129</v>
@@ -2807,13 +2807,13 @@
         <v>91</v>
       </c>
       <c r="H74" t="n">
-        <v>49.76076555023923</v>
+        <v>27.03349282296651</v>
       </c>
       <c r="I74" t="n">
-        <v>117</v>
+        <v>22</v>
       </c>
       <c r="J74" t="n">
-        <v>81</v>
+        <v>176</v>
       </c>
     </row>
     <row r="75">
@@ -2824,28 +2824,28 @@
         <v>74</v>
       </c>
       <c r="C75" t="n">
-        <v>10.15318181818182</v>
+        <v>-23.3281100478469</v>
       </c>
       <c r="D75" t="n">
-        <v>9.328544129894388</v>
+        <v>-3.876823562864077</v>
       </c>
       <c r="E75" t="n">
-        <v>49.76076555023923</v>
+        <v>72.24880382775119</v>
       </c>
       <c r="F75" t="n">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G75" t="n">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H75" t="n">
-        <v>50.23923444976076</v>
+        <v>27.7511961722488</v>
       </c>
       <c r="I75" t="n">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="J75" t="n">
-        <v>81</v>
+        <v>178</v>
       </c>
     </row>
     <row r="76">
@@ -2856,28 +2856,28 @@
         <v>75</v>
       </c>
       <c r="C76" t="n">
-        <v>11.53361244019139</v>
+        <v>-22.48117224880383</v>
       </c>
       <c r="D76" t="n">
-        <v>10.01702008528388</v>
+        <v>-3.384980642013383</v>
       </c>
       <c r="E76" t="n">
-        <v>50.23923444976076</v>
+        <v>72.48803827751196</v>
       </c>
       <c r="F76" t="n">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G76" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H76" t="n">
-        <v>49.76076555023923</v>
+        <v>27.51196172248804</v>
       </c>
       <c r="I76" t="n">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="J76" t="n">
-        <v>85</v>
+        <v>181</v>
       </c>
     </row>
     <row r="77">
@@ -2888,28 +2888,28 @@
         <v>76</v>
       </c>
       <c r="C77" t="n">
-        <v>12.12631578947368</v>
+        <v>-21.43148325358852</v>
       </c>
       <c r="D77" t="n">
-        <v>10.37845551228936</v>
+        <v>-2.798249564719336</v>
       </c>
       <c r="E77" t="n">
-        <v>50</v>
+        <v>72.72727272727273</v>
       </c>
       <c r="F77" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G77" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H77" t="n">
-        <v>50</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="I77" t="n">
-        <v>121</v>
+        <v>24</v>
       </c>
       <c r="J77" t="n">
-        <v>79</v>
+        <v>176</v>
       </c>
     </row>
     <row r="78">
@@ -2920,28 +2920,28 @@
         <v>77</v>
       </c>
       <c r="C78" t="n">
-        <v>14.29992822966507</v>
+        <v>-22.11069377990431</v>
       </c>
       <c r="D78" t="n">
-        <v>11.42545008507796</v>
+        <v>-2.950241678332678</v>
       </c>
       <c r="E78" t="n">
-        <v>50.7177033492823</v>
+        <v>72.48803827751196</v>
       </c>
       <c r="F78" t="n">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G78" t="n">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H78" t="n">
-        <v>49.2822966507177</v>
+        <v>27.51196172248804</v>
       </c>
       <c r="I78" t="n">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="J78" t="n">
-        <v>82</v>
+        <v>178</v>
       </c>
     </row>
     <row r="79">
@@ -2952,28 +2952,28 @@
         <v>78</v>
       </c>
       <c r="C79" t="n">
-        <v>14.96961722488039</v>
+        <v>-20.99062200956938</v>
       </c>
       <c r="D79" t="n">
-        <v>11.8268001375343</v>
+        <v>-2.324912721800846</v>
       </c>
       <c r="E79" t="n">
-        <v>50.7177033492823</v>
+        <v>72.72727272727273</v>
       </c>
       <c r="F79" t="n">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G79" t="n">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H79" t="n">
-        <v>49.2822966507177</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="I79" t="n">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="J79" t="n">
-        <v>82</v>
+        <v>178</v>
       </c>
     </row>
     <row r="80">
@@ -2984,28 +2984,28 @@
         <v>79</v>
       </c>
       <c r="C80" t="n">
-        <v>17.96387559808612</v>
+        <v>-21.05794258373206</v>
       </c>
       <c r="D80" t="n">
-        <v>13.23248803205685</v>
+        <v>-2.186310556898688</v>
       </c>
       <c r="E80" t="n">
-        <v>51.67464114832536</v>
+        <v>72.96650717703349</v>
       </c>
       <c r="F80" t="n">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="G80" t="n">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="H80" t="n">
-        <v>48.32535885167464</v>
+        <v>27.03349282296651</v>
       </c>
       <c r="I80" t="n">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="J80" t="n">
-        <v>85</v>
+        <v>181</v>
       </c>
     </row>
     <row r="81">
@@ -3016,28 +3016,28 @@
         <v>80</v>
       </c>
       <c r="C81" t="n">
-        <v>16.87665071770335</v>
+        <v>-19.30287081339712</v>
       </c>
       <c r="D81" t="n">
-        <v>12.88988810290851</v>
+        <v>-1.246276162828402</v>
       </c>
       <c r="E81" t="n">
-        <v>51.19617224880383</v>
+        <v>73.44497607655502</v>
       </c>
       <c r="F81" t="n">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G81" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H81" t="n">
-        <v>48.80382775119617</v>
+        <v>26.55502392344498</v>
       </c>
       <c r="I81" t="n">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="J81" t="n">
-        <v>86</v>
+        <v>182</v>
       </c>
     </row>
     <row r="82">
@@ -3048,28 +3048,28 @@
         <v>81</v>
       </c>
       <c r="C82" t="n">
-        <v>19.23866028708133</v>
+        <v>-17.29028708133971</v>
       </c>
       <c r="D82" t="n">
-        <v>14.0459802223664</v>
+        <v>-0.2386735132339535</v>
       </c>
       <c r="E82" t="n">
-        <v>51.43540669856459</v>
+        <v>73.92344497607655</v>
       </c>
       <c r="F82" t="n">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G82" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H82" t="n">
-        <v>48.5645933014354</v>
+        <v>26.07655502392344</v>
       </c>
       <c r="I82" t="n">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="J82" t="n">
-        <v>89</v>
+        <v>186</v>
       </c>
     </row>
     <row r="83">
@@ -3080,28 +3080,28 @@
         <v>82</v>
       </c>
       <c r="C83" t="n">
-        <v>20.86736842105264</v>
+        <v>-18.03143540669856</v>
       </c>
       <c r="D83" t="n">
-        <v>14.85865515901032</v>
+        <v>-0.4008663199503699</v>
       </c>
       <c r="E83" t="n">
-        <v>51.67464114832536</v>
+        <v>73.68421052631578</v>
       </c>
       <c r="F83" t="n">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G83" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H83" t="n">
-        <v>48.32535885167464</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="I83" t="n">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="J83" t="n">
-        <v>89</v>
+        <v>186</v>
       </c>
     </row>
     <row r="84">
@@ -3112,28 +3112,28 @@
         <v>83</v>
       </c>
       <c r="C84" t="n">
-        <v>24.35124401913875</v>
+        <v>-17.71866028708134</v>
       </c>
       <c r="D84" t="n">
-        <v>16.47136150764591</v>
+        <v>-0.1082830892100117</v>
       </c>
       <c r="E84" t="n">
-        <v>52.39234449760766</v>
+        <v>73.68421052631578</v>
       </c>
       <c r="F84" t="n">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="G84" t="n">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="H84" t="n">
-        <v>47.60765550239234</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="I84" t="n">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="J84" t="n">
-        <v>88</v>
+        <v>185</v>
       </c>
     </row>
     <row r="85">
@@ -3144,28 +3144,28 @@
         <v>84</v>
       </c>
       <c r="C85" t="n">
-        <v>26.11021531100478</v>
+        <v>-11.6727033492823</v>
       </c>
       <c r="D85" t="n">
-        <v>17.34307513441989</v>
+        <v>2.644087091594141</v>
       </c>
       <c r="E85" t="n">
-        <v>52.87081339712919</v>
+        <v>75.11961722488039</v>
       </c>
       <c r="F85" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G85" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H85" t="n">
-        <v>47.12918660287082</v>
+        <v>24.88038277511962</v>
       </c>
       <c r="I85" t="n">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="J85" t="n">
-        <v>87</v>
+        <v>183</v>
       </c>
     </row>
     <row r="86">
@@ -3176,28 +3176,28 @@
         <v>85</v>
       </c>
       <c r="C86" t="n">
-        <v>26.9650956937799</v>
+        <v>-7.425287081339714</v>
       </c>
       <c r="D86" t="n">
-        <v>17.84224453795424</v>
+        <v>4.594545449318672</v>
       </c>
       <c r="E86" t="n">
-        <v>52.87081339712919</v>
+        <v>76.07655502392345</v>
       </c>
       <c r="F86" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G86" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H86" t="n">
-        <v>47.12918660287082</v>
+        <v>23.92344497607656</v>
       </c>
       <c r="I86" t="n">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="J86" t="n">
-        <v>85</v>
+        <v>181</v>
       </c>
     </row>
     <row r="87">
@@ -3208,28 +3208,28 @@
         <v>86</v>
       </c>
       <c r="C87" t="n">
-        <v>27.78236842105262</v>
+        <v>-5.573038277511966</v>
       </c>
       <c r="D87" t="n">
-        <v>18.31941599689821</v>
+        <v>5.583185972747136</v>
       </c>
       <c r="E87" t="n">
-        <v>52.87081339712919</v>
+        <v>77.03349282296651</v>
       </c>
       <c r="F87" t="n">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G87" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H87" t="n">
-        <v>47.12918660287082</v>
+        <v>22.96650717703349</v>
       </c>
       <c r="I87" t="n">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="J87" t="n">
-        <v>85</v>
+        <v>183</v>
       </c>
     </row>
     <row r="88">
@@ -3240,28 +3240,28 @@
         <v>87</v>
       </c>
       <c r="C88" t="n">
-        <v>29.44483253588517</v>
+        <v>-5.13971291866029</v>
       </c>
       <c r="D88" t="n">
-        <v>19.18284343983161</v>
+        <v>5.945778534939008</v>
       </c>
       <c r="E88" t="n">
-        <v>52.87081339712919</v>
+        <v>77.03349282296651</v>
       </c>
       <c r="F88" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G88" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H88" t="n">
-        <v>47.12918660287082</v>
+        <v>22.96650717703349</v>
       </c>
       <c r="I88" t="n">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="J88" t="n">
-        <v>83</v>
+        <v>182</v>
       </c>
     </row>
     <row r="89">
@@ -3272,13 +3272,13 @@
         <v>88</v>
       </c>
       <c r="C89" t="n">
-        <v>31.49602870813397</v>
+        <v>-5.989999999999999</v>
       </c>
       <c r="D89" t="n">
-        <v>20.14752871750341</v>
+        <v>5.910832672605748</v>
       </c>
       <c r="E89" t="n">
-        <v>54.06698564593302</v>
+        <v>77.99043062200957</v>
       </c>
       <c r="F89" t="n">
         <v>139</v>
@@ -3287,13 +3287,13 @@
         <v>79</v>
       </c>
       <c r="H89" t="n">
-        <v>45.93301435406698</v>
+        <v>22.00956937799043</v>
       </c>
       <c r="I89" t="n">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="J89" t="n">
-        <v>87</v>
+        <v>187</v>
       </c>
     </row>
     <row r="90">
@@ -3304,28 +3304,28 @@
         <v>89</v>
       </c>
       <c r="C90" t="n">
-        <v>30.81464114832536</v>
+        <v>-5.072966507177038</v>
       </c>
       <c r="D90" t="n">
-        <v>20.06599381382451</v>
+        <v>6.435650116410621</v>
       </c>
       <c r="E90" t="n">
-        <v>53.11004784688996</v>
+        <v>77.75119617224881</v>
       </c>
       <c r="F90" t="n">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G90" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H90" t="n">
-        <v>46.88995215311004</v>
+        <v>22.2488038277512</v>
       </c>
       <c r="I90" t="n">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="J90" t="n">
-        <v>81</v>
+        <v>182</v>
       </c>
     </row>
     <row r="91">
@@ -3336,13 +3336,13 @@
         <v>90</v>
       </c>
       <c r="C91" t="n">
-        <v>33.31131578947367</v>
+        <v>-4.264330143540674</v>
       </c>
       <c r="D91" t="n">
-        <v>21.22058556093436</v>
+        <v>6.925751398223465</v>
       </c>
       <c r="E91" t="n">
-        <v>54.06698564593302</v>
+        <v>77.51196172248804</v>
       </c>
       <c r="F91" t="n">
         <v>145</v>
@@ -3351,13 +3351,13 @@
         <v>80</v>
       </c>
       <c r="H91" t="n">
-        <v>45.93301435406698</v>
+        <v>22.48803827751196</v>
       </c>
       <c r="I91" t="n">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="J91" t="n">
-        <v>81</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
